--- a/02-Projeto/01-ResolveAi/02-GQA/01-AuditoriaGRE/02-Indicadores/01-Indicadores.xlsx
+++ b/02-Projeto/01-ResolveAi/02-GQA/01-AuditoriaGRE/02-Indicadores/01-Indicadores.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IARL" sheetId="1" r:id="rId1"/>
-    <sheet name="IVR" sheetId="2" r:id="rId2"/>
+    <sheet name="IARL-DESCRIÇÃO" sheetId="3" r:id="rId2"/>
+    <sheet name="IVR" sheetId="2" r:id="rId3"/>
+    <sheet name="IVR-DESCRIÇÃO" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -18,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Índice de Aprovação de Requisitos Levantados</t>
   </si>
@@ -66,13 +68,255 @@
   </si>
   <si>
     <t>Quantidade Total de Requisitos (mês anterior)</t>
+  </si>
+  <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>ICRL- Índice de Consistência de Requisitos Levantados</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Avaliar o grau de conformidade dos requisitos levantados com as necessidades do cliente.</t>
+  </si>
+  <si>
+    <t>Coleta</t>
+  </si>
+  <si>
+    <t>Análise</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quando</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Após a fase de validação de requisitos com o cliente.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Analista da Qualidade ou o Gerente de Requisitos.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Considerar a Quantidade de Requisitos Levantada (QRL).
+Identificar a Quantidade de Requisitos Consistentes (QRC), ou seja, os requisitos corretamente levantados e válidos na percepção do cliente e futuros usuários.
+O Índice de Consistência de Requisitos Levantados (ICRL) é obtido por meio da divisão da QRC pela QRL multiplicada por 100.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ICRL = QRC/QRL*100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Baixo:  ICRL &lt;= 50%
+Médio: ICRL &lt;= 90%
+Alto:     ICRL  &gt;  90%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A meta é obter o ICRL Alto.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>IVR- Índice de Volatilidade de Requisitos</t>
+  </si>
+  <si>
+    <t>Avaliar a taxa de alteração e remoção de requisitos no projeto em um determinado período de tempo.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quando</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Após a geração da Baseline de requisitos deve ser deve ser realizado a cada mês.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Analista da Qualidade ou o Gerente de Requisitos.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+O Índice de Volatilidade de Requisitos (IVR) é obtido com base em dados sobre alterações na Baseline de requisitos em um mês. Nesse sentido, deve-se considerar a Quantidade Total de Requisitos (QTR) no início do período medido e a Quantidade de Requisitos Removidos ou Alterados (QRRA) durante esse período.
+O IVR é obtido por meio da divisão da QRRA pela QTR multiplicada por 100. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IVR = QRRA / QTR *100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Baixo:  IVR &lt;= 3%
+Médio: IVR &lt;= 6%
+Alto:     IVR  &gt; 6%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A meta é obter o IVR  Baixo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -111,6 +355,46 @@
       <sz val="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -132,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -192,11 +476,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,6 +522,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -637,10 +960,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="231" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="87" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -726,4 +1135,89 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" style="17" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="288.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="75.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>